--- a/Ejercicios/E_Multiplicadores de lagrange.xlsx
+++ b/Ejercicios/E_Multiplicadores de lagrange.xlsx
@@ -5,47 +5,140 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\metodos\Metodos\Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Metodos\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B22A9E9-6516-4295-9C63-437068DDF63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82294C2-BBF3-4941-8901-49C088CF1A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF4C8049-84CA-4910-BBF7-1E28CED19A1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF4C8049-84CA-4910-BBF7-1E28CED19A1E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="a)" sheetId="3" r:id="rId1"/>
+    <sheet name="b)" sheetId="4" r:id="rId2"/>
+    <sheet name="c)" sheetId="6" r:id="rId3"/>
+    <sheet name="d)" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet3!$O$2:$P$2</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'a)'!$O$2:$P$2</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'b)'!$O$2:$P$2</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'c)'!$O$2:$P$2</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'d)'!$O$2:$P$2</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet3!$N$3:$N$5</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'a)'!$N$3:$N$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'b)'!$N$3:$N$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'c)'!$N$3:$N$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'d)'!$N$3:$N$5</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet3!$N$2</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'a)'!$N$2</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'b)'!$N$2</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'c)'!$N$2</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'d)'!$N$2</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet3!$O$3:$O$5</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'a)'!$O$3:$O$5</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'b)'!$O$3:$O$5</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'c)'!$O$3:$O$5</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'d)'!$O$3:$O$5</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
   <si>
     <t>Factor de escala</t>
   </si>
@@ -143,6 +236,30 @@
   </si>
   <si>
     <t>min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugar localizado. </t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>cerca de quintana roo</t>
+  </si>
+  <si>
+    <t>Cerca de Michoacán y Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerca de Sinaloa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1: </t>
+  </si>
+  <si>
+    <t>r2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3: </t>
   </si>
 </sst>
 </file>
@@ -150,7 +267,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -334,17 +451,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -356,26 +468,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,6 +499,198 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539972</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C7C0BE-C8E5-A8F7-96FC-7C6133322A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="10518"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="732692" y="1934306"/>
+          <a:ext cx="2992049" cy="1162212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539972</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5829838-11C4-4A2B-9729-DE80A6255AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="10518"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733669" y="1894057"/>
+          <a:ext cx="2999083" cy="1145799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539972</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE128687-D920-40FE-B478-916BD03E5076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="10518"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733669" y="1894057"/>
+          <a:ext cx="2999083" cy="1145799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539972</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7BCDD5-62CD-45DF-AD63-E3B114E4487B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="10518"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733669" y="1894057"/>
+          <a:ext cx="2999083" cy="1145799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,118 +990,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535B3677-53A8-41B5-B3F6-E850B84ACA2C}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="1"/>
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>1085.1063799999999</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="9">
         <f>(I2*$B$3)/$A$3</f>
         <v>10.199999971999999</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="23">
         <f>N3^2+N4^2+N5^2</f>
         <v>7.9586998686965851</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="17">
         <v>9.3661924222589583</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="24">
         <v>10.826874512800851</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="8">
         <v>0.1</v>
       </c>
-      <c r="S2" s="37">
+      <c r="S2" s="2">
         <v>7.9543228046223069</v>
       </c>
-      <c r="T2" s="33">
+      <c r="T2" s="25">
         <v>9.365502153990521</v>
       </c>
-      <c r="U2" s="35">
+      <c r="U2" s="27">
         <v>10.822298675534304</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>500</v>
       </c>
       <c r="B3">
         <v>4.7</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="8">
         <v>2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>1574.4680900000001</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="9">
         <f t="shared" ref="J3:J4" si="0">(I3*$B$3)/$A$3</f>
         <v>14.800000046000001</v>
       </c>
@@ -815,27 +1115,27 @@
       <c r="O3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="8">
         <v>1</v>
       </c>
-      <c r="S3" s="37">
+      <c r="S3" s="2">
         <v>7.9644681402803803</v>
       </c>
-      <c r="T3" s="33">
+      <c r="T3" s="25">
         <v>9.3615389707345251</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3" s="27">
         <v>10.817251984246763</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="13">
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="10">
         <v>3</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <v>287.23404299999999</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <f t="shared" si="0"/>
         <v>2.7000000042000001</v>
       </c>
@@ -849,33 +1149,33 @@
       <c r="O4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="8">
         <v>10</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="2">
         <v>7.9543242561389977</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="25">
         <v>9.3655500033267156</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="27">
         <v>10.822368422566631</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="M5" t="s">
@@ -888,126 +1188,123 @@
       <c r="O5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="8">
         <v>100</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="2">
         <v>7.9543227183649048</v>
       </c>
-      <c r="T5" s="33">
+      <c r="T5" s="25">
         <v>9.3654893778852202</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="27">
         <v>10.822307280781605</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3.4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <f>(B6*$A$3)/$B$3</f>
         <v>361.70212765957444</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <f>(C6*$A$3)/$B$3</f>
         <v>2031.9148936170211</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="R6" s="13">
+      <c r="R6" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S6" s="38">
+      <c r="S6" s="11">
         <v>7.9586998686965851</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="26">
         <v>9.3661924222589583</v>
       </c>
-      <c r="U6" s="36">
+      <c r="U6" s="28">
         <v>10.826874512800851</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>24</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <f t="shared" ref="D7:E8" si="2">(B7*$A$3)/$B$3</f>
         <v>2553.1914893617022</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <f t="shared" si="2"/>
         <v>925.531914893617</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="8">
         <v>1</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="2">
         <v>3.4</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="9">
         <v>10.199999971999999</v>
       </c>
-      <c r="L7" s="29"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>7.3</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>11.3</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="17">
         <f t="shared" si="2"/>
         <v>776.595744680851</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="19">
         <f t="shared" si="2"/>
         <v>1202.127659574468</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="8">
         <v>2</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="2">
         <v>24</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="9">
         <v>14.800000046000001</v>
       </c>
-      <c r="L8" s="29"/>
       <c r="R8" t="s">
         <v>24</v>
       </c>
@@ -1015,26 +1312,1192 @@
         <f>MIN(S2:S6)</f>
         <v>7.9543227183649048</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="13">
+      <c r="T8" s="25">
+        <v>9.3654893778852202</v>
+      </c>
+      <c r="U8" s="27">
+        <v>10.822307280781605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="10">
         <v>3</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="11">
         <v>7.3</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="11">
         <v>11.3</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="12">
         <v>2.7000000042000001</v>
       </c>
-      <c r="L9" s="29"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E61593-8F25-4E83-9014-476767505F8B}">
+  <dimension ref="A1:U15"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="1"/>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1941.48936</v>
+      </c>
+      <c r="J2" s="9">
+        <f>(I2*$B$3)/$A$3</f>
+        <v>18.249999984000002</v>
+      </c>
+      <c r="N2" s="23">
+        <f>N3^2+N4^2+N5^2</f>
+        <v>13.54524505572369</v>
+      </c>
+      <c r="O2" s="17">
+        <v>16.381136685026078</v>
+      </c>
+      <c r="P2" s="24">
+        <v>6.3290536068373147</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>84.372682975462553</v>
+      </c>
+      <c r="T2" s="25">
+        <v>16.370907812811925</v>
+      </c>
+      <c r="U2" s="27">
+        <v>6.6246772176461519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>4.7</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>840.42553199999998</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3" si="0">(I3*$B$3)/$A$3</f>
+        <v>7.9000000007999995</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <f>($O$2-I7)^2+($P$2-J7)^2-K7^2</f>
+        <v>-1.455518003635234</v>
+      </c>
+      <c r="O3">
+        <v>1000</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>42.218387928259929</v>
+      </c>
+      <c r="T3" s="25">
+        <v>16.349883929939832</v>
+      </c>
+      <c r="U3" s="27">
+        <v>6.489639200736101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1085.1063799999999</v>
+      </c>
+      <c r="J4" s="9">
+        <f>(I4*$B$3)/$A$3</f>
+        <v>10.199999971999999</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <f>($O$2-I8)^2+($P$2-J8)^2-K8^2</f>
+        <v>1.2584649988665646</v>
+      </c>
+      <c r="O4">
+        <v>1000</v>
+      </c>
+      <c r="R4" s="8">
+        <v>10</v>
+      </c>
+      <c r="S4" s="2">
+        <v>13.545258951324488</v>
+      </c>
+      <c r="T4" s="25">
+        <v>16.38101975063848</v>
+      </c>
+      <c r="U4" s="27">
+        <v>6.3290573891468735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <f>($O$2-I9)^2+($P$2-J9)^2-K9^2</f>
+        <v>3.1373521070235597</v>
+      </c>
+      <c r="O5">
+        <v>1000</v>
+      </c>
+      <c r="R5" s="8">
+        <v>100</v>
+      </c>
+      <c r="S5" s="2">
+        <v>13.545242427562485</v>
+      </c>
+      <c r="T5" s="25">
+        <v>16.381048345356852</v>
+      </c>
+      <c r="U5" s="27">
+        <v>6.3289293321566626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <f>(B6*$A$3)/$B$3</f>
+        <v>361.70212765957444</v>
+      </c>
+      <c r="E6" s="16">
+        <f>(C6*$A$3)/$B$3</f>
+        <v>2031.9148936170211</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="10">
+        <v>1000</v>
+      </c>
+      <c r="S6" s="11">
+        <v>13.54524505572369</v>
+      </c>
+      <c r="T6" s="26">
+        <v>16.381136685026078</v>
+      </c>
+      <c r="U6" s="28">
+        <v>6.3290536068373147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:E8" si="1">(B7*$A$3)/$B$3</f>
+        <v>2553.1914893617022</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="1"/>
+        <v>925.531914893617</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K7" s="9">
+        <f>J2</f>
+        <v>18.249999984000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="17">
+        <v>7.3</v>
+      </c>
+      <c r="C8" s="18">
+        <v>11.3</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="1"/>
+        <v>776.595744680851</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="1"/>
+        <v>1202.127659574468</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" ref="K8:K9" si="2">J3</f>
+        <v>7.9000000007999995</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8">
+        <f>MIN(S2:S6)</f>
+        <v>13.545242427562485</v>
+      </c>
+      <c r="T8" s="25">
+        <v>16.381048345356852</v>
+      </c>
+      <c r="U8" s="27">
+        <v>6.3289293321566626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="10">
+        <v>3</v>
+      </c>
+      <c r="I9" s="11">
+        <v>7.3</v>
+      </c>
+      <c r="J9" s="11">
+        <v>11.3</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="2"/>
+        <v>10.199999971999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FABFC4-0627-483C-A4B1-4364FFB9EE38}">
+  <dimension ref="A1:U15"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="1"/>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2776.5957400000002</v>
+      </c>
+      <c r="J2" s="9">
+        <f>(I2*$B$3)/$A$3</f>
+        <v>26.099999956000005</v>
+      </c>
+      <c r="N2" s="23">
+        <f>N3^2+N4^2+N5^2</f>
+        <v>1782.3982472726611</v>
+      </c>
+      <c r="O2" s="17">
+        <v>26.136789316738259</v>
+      </c>
+      <c r="P2" s="24">
+        <v>7.8428534634706182</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1681.6299938684417</v>
+      </c>
+      <c r="T2" s="25">
+        <v>26.153468561399254</v>
+      </c>
+      <c r="U2" s="27">
+        <v>7.8321277581453383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>4.7</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>244.68085099999999</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3" si="0">(I3*$B$3)/$A$3</f>
+        <v>2.2999999993999998</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <f>($O$2-I7)^2+($P$2-J7)^2-K7^2</f>
+        <v>-37.525061124561603</v>
+      </c>
+      <c r="O3">
+        <v>0.01</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>867.44041471707396</v>
+      </c>
+      <c r="T3" s="25">
+        <v>26.318414405478158</v>
+      </c>
+      <c r="U3" s="27">
+        <v>7.7431874717442488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2090.42553</v>
+      </c>
+      <c r="J4" s="9">
+        <f>(I4*$B$3)/$A$3</f>
+        <v>19.649999982000001</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <f>($O$2-I8)^2+($P$2-J8)^2-K8^2</f>
+        <v>1.0568771971070312E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.01</v>
+      </c>
+      <c r="R4" s="8">
+        <v>10</v>
+      </c>
+      <c r="S4" s="2">
+        <v>16.487068143957927</v>
+      </c>
+      <c r="T4" s="25">
+        <v>26.461565121987817</v>
+      </c>
+      <c r="U4" s="27">
+        <v>6.9070867179302677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <f>($O$2-I9)^2+($P$2-J9)^2-K9^2</f>
+        <v>-19.346005354378349</v>
+      </c>
+      <c r="O5">
+        <v>0.01</v>
+      </c>
+      <c r="R5" s="8">
+        <v>100</v>
+      </c>
+      <c r="S5" s="2">
+        <v>16.487065542593502</v>
+      </c>
+      <c r="T5" s="25">
+        <v>26.461594891591741</v>
+      </c>
+      <c r="U5" s="27">
+        <v>6.9072103335336541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <f>(B6*$A$3)/$B$3</f>
+        <v>361.70212765957444</v>
+      </c>
+      <c r="E6" s="16">
+        <f>(C6*$A$3)/$B$3</f>
+        <v>2031.9148936170211</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="S6" s="11">
+        <v>1782.3982472726611</v>
+      </c>
+      <c r="T6" s="26">
+        <v>26.136789316738259</v>
+      </c>
+      <c r="U6" s="28">
+        <v>7.8428534634706182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:E8" si="1">(B7*$A$3)/$B$3</f>
+        <v>2553.1914893617022</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="1"/>
+        <v>925.531914893617</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K7" s="9">
+        <f>J2</f>
+        <v>26.099999956000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="17">
+        <v>7.3</v>
+      </c>
+      <c r="C8" s="18">
+        <v>11.3</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="1"/>
+        <v>776.595744680851</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="1"/>
+        <v>1202.127659574468</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" ref="K8:K9" si="2">J3</f>
+        <v>2.2999999993999998</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8">
+        <f>MIN(S2:S6)</f>
+        <v>16.487065542593502</v>
+      </c>
+      <c r="T8" s="25">
+        <v>26.461594891591741</v>
+      </c>
+      <c r="U8" s="27">
+        <v>6.9072103335336541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="10">
+        <v>3</v>
+      </c>
+      <c r="I9" s="11">
+        <v>7.3</v>
+      </c>
+      <c r="J9" s="11">
+        <v>11.3</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="2"/>
+        <v>19.649999982000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318E4635-DB94-443F-AD15-D50FBDC3228F}">
+  <dimension ref="A1:U14"/>
+  <sheetViews>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="1"/>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1670.2127700000001</v>
+      </c>
+      <c r="J2" s="9">
+        <f>(I2*$B$3)/$A$3</f>
+        <v>15.365957484000001</v>
+      </c>
+      <c r="N2" s="23">
+        <f>N3^2+N4^2+N5^2</f>
+        <v>143.46211134394653</v>
+      </c>
+      <c r="O2" s="17">
+        <v>12.411121871094434</v>
+      </c>
+      <c r="P2" s="24">
+        <v>6.3416326551028117</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>54.673496336585721</v>
+      </c>
+      <c r="T2" s="25">
+        <v>12.487584335566929</v>
+      </c>
+      <c r="U2" s="27">
+        <v>6.5894839581414821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1244.68085</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3" si="0">(I3*$B$3)/$A$3</f>
+        <v>11.45106382</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <f>($O$2-I7)^2+($P$2-J7)^2-K7^2</f>
+        <v>9.6758296571786389</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>25.604561500030162</v>
+      </c>
+      <c r="T3" s="25">
+        <v>12.469896746017724</v>
+      </c>
+      <c r="U3" s="27">
+        <v>6.4758752098841583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>744.68085099999996</v>
+      </c>
+      <c r="J4" s="9">
+        <f>(I4*$B$3)/$A$3</f>
+        <v>6.8510638291999992</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <f>($O$2-I8)^2+($P$2-J8)^2-K8^2</f>
+        <v>5.967681115629631</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="R4" s="8">
+        <v>5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>8.1831583593388348</v>
+      </c>
+      <c r="T4" s="25">
+        <v>12.520892312386247</v>
+      </c>
+      <c r="U4" s="27">
+        <v>6.3635206652858205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <f>($O$2-I9)^2+($P$2-J9)^2-K9^2</f>
+        <v>3.7718979163501132</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="R5" s="8">
+        <v>10</v>
+      </c>
+      <c r="S5" s="2">
+        <v>8.1831507955575873</v>
+      </c>
+      <c r="T5" s="25">
+        <v>12.520982731011401</v>
+      </c>
+      <c r="U5" s="27">
+        <v>6.3635278503101347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <f>(B6*$A$3)/$B$3</f>
+        <v>358.69565217391306</v>
+      </c>
+      <c r="E6" s="16">
+        <f>(C6*$A$3)/$B$3</f>
+        <v>2076.0869565217395</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="10">
+        <v>1000</v>
+      </c>
+      <c r="S6" s="11">
+        <v>8.1831519807327151</v>
+      </c>
+      <c r="T6" s="26">
+        <v>12.520945881371428</v>
+      </c>
+      <c r="U6" s="28">
+        <v>6.3635146123238675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>23.9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:E8" si="1">(B7*$A$3)/$B$3</f>
+        <v>2597.826086956522</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="1"/>
+        <v>934.78260869565224</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K7" s="9">
+        <f>J2</f>
+        <v>15.365957484000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="17">
+        <v>7.3</v>
+      </c>
+      <c r="C8" s="18">
+        <v>11.3</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="1"/>
+        <v>793.47826086956525</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="1"/>
+        <v>1228.2608695652175</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" ref="K8:K9" si="2">J3</f>
+        <v>11.45106382</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8">
+        <f>MIN(S2:S6)</f>
+        <v>8.1831507955575873</v>
+      </c>
+      <c r="T8" s="25">
+        <v>12.520982731011401</v>
+      </c>
+      <c r="U8" s="27">
+        <v>6.3635278503101347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="10">
+        <v>3</v>
+      </c>
+      <c r="I9" s="11">
+        <v>7.3</v>
+      </c>
+      <c r="J9" s="11">
+        <v>11.3</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="2"/>
+        <v>6.8510638291999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ejercicios/E_Multiplicadores de lagrange.xlsx
+++ b/Ejercicios/E_Multiplicadores de lagrange.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Metodos\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82294C2-BBF3-4941-8901-49C088CF1A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5913AA-1BA8-499C-B756-1945CD7EE987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF4C8049-84CA-4910-BBF7-1E28CED19A1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{CF4C8049-84CA-4910-BBF7-1E28CED19A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="a)" sheetId="3" r:id="rId1"/>
     <sheet name="b)" sheetId="4" r:id="rId2"/>
     <sheet name="c)" sheetId="6" r:id="rId3"/>
     <sheet name="d)" sheetId="7" r:id="rId4"/>
+    <sheet name="Conclusiones" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'a)'!$O$2:$P$2</definedName>
@@ -161,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="34">
   <si>
     <t>Factor de escala</t>
   </si>
@@ -247,9 +248,6 @@
     <t>cerca de quintana roo</t>
   </si>
   <si>
-    <t>Cerca de Michoacán y Colima</t>
-  </si>
-  <si>
     <t xml:space="preserve">cerca de Sinaloa </t>
   </si>
   <si>
@@ -260,6 +258,12 @@
   </si>
   <si>
     <t xml:space="preserve">r3: </t>
+  </si>
+  <si>
+    <t>Cerca Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despues de realizar este trabajo obtenemos ya un conocimiento mas cercano </t>
   </si>
 </sst>
 </file>
@@ -512,7 +516,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>539972</xdr:colOff>
+      <xdr:colOff>485543</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>68056</xdr:rowOff>
     </xdr:to>
@@ -992,23 +996,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535B3677-53A8-41B5-B3F6-E850B84ACA2C}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="J1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -1338,22 +1346,22 @@
         <v>25</v>
       </c>
       <c r="O11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1369,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E61593-8F25-4E83-9014-476767505F8B}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1722,17 +1730,17 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1748,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FABFC4-0627-483C-A4B1-4364FFB9EE38}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F17"/>
+    <sheetView topLeftCell="D1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2102,17 +2110,17 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2128,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318E4635-DB94-443F-AD15-D50FBDC3228F}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="J1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2474,23 +2482,23 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
         <v>25</v>
       </c>
       <c r="O12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2500,4 +2508,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC22CD5F-4D0D-4C8B-94A2-8E7F9C49806F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ejercicios/E_Multiplicadores de lagrange.xlsx
+++ b/Ejercicios/E_Multiplicadores de lagrange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Metodos\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5913AA-1BA8-499C-B756-1945CD7EE987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C9946F-FF68-4D74-8045-78C6350E0FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{CF4C8049-84CA-4910-BBF7-1E28CED19A1E}"/>
   </bookViews>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
   <si>
     <t>Factor de escala</t>
   </si>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>Cerca Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despues de realizar este trabajo obtenemos ya un conocimiento mas cercano </t>
   </si>
 </sst>
 </file>
@@ -692,6 +689,90 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E21D08-0D11-B4F9-E0F5-B8C9452C260D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="152400"/>
+          <a:ext cx="6103620" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>En conclusión, la aplicación conjunta de trilateración y el método de interpolación de Lagrange en este ejercicio proporciona una herramienta matemática poderosa para determinar con precisión la ubicación de un punto objetivo en un plano bidimensional. La trilateración se encarga de utilizar las distancias proporcionadas por tres puntos de referencia, mientras que el método de Lagrange permite ajustar un polinomio que modela la relación entre estas distancias y las coordenadas del punto objetivo. Esta combinación de técnicas ofrece una solución más avanzada, demostrando la versatilidad y aplicabilidad de conceptos matemáticos en situaciones prácticas como la localización en sistemas de posicionamiento o redes de sensores. En resumen, la trilateración respaldada por el método de interpolación de Lagrange no solo es una herramienta efectiva para resolver problemas de ubicación, sino que también destaca la sinergia entre conceptos geométricos y métodos algebraicos en la resolución de problemas del mundo real.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2515,17 +2596,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ejercicios/E_Multiplicadores de lagrange.xlsx
+++ b/Ejercicios/E_Multiplicadores de lagrange.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Metodos\Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\metodos\Metodos\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C9946F-FF68-4D74-8045-78C6350E0FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B158E16-24A7-4DDD-9D9F-89613146F4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{CF4C8049-84CA-4910-BBF7-1E28CED19A1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CF4C8049-84CA-4910-BBF7-1E28CED19A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="a)" sheetId="3" r:id="rId1"/>
@@ -699,15 +699,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>7619</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -722,8 +722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="152400"/>
-          <a:ext cx="6103620" cy="3390900"/>
+          <a:off x="7619" y="152400"/>
+          <a:ext cx="8726805" cy="1495425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,26 +1081,26 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>10.822298675534304</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>10.817251984246763</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="10">
         <v>3</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>10.822368422566631</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>10.822307280781605</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>10.826874512800851</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>10.199999971999999</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>10.822307280781605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="10">
         <v>3</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>2.7000000042000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M11" t="s">
         <v>25</v>
       </c>
@@ -1430,17 +1430,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1462,21 +1462,21 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>6.6246772176461519</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>6.489639200736101</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="10">
         <v>3</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>6.3290573891468735</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>6.3289293321566626</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>6.3290536068373147</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>18.249999984000002</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>6.3289293321566626</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="10">
         <v>3</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>10.199999971999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M12" t="s">
         <v>25</v>
       </c>
@@ -1809,17 +1809,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1841,22 +1841,22 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>7.8321277581453383</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>7.7431874717442488</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="10">
         <v>3</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>6.9070867179302677</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>6.9072103335336541</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>7.8428534634706182</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>26.099999956000005</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>6.9072103335336541</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="10">
         <v>3</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>19.649999982000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M12" t="s">
         <v>25</v>
       </c>
@@ -2189,17 +2189,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2221,22 +2221,22 @@
       <selection activeCell="J15" sqref="J15:T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>6.5894839581414821</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>6.4758752098841583</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="10">
         <v>3</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>6.3635206652858205</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>6.3635278503101347</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>6.3635146123238675</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>15.365957484000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>6.3635278503101347</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="10">
         <v>3</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>6.8510638291999992</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2572,12 +2572,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2596,10 +2596,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Ejercicios/E_Multiplicadores de lagrange.xlsx
+++ b/Ejercicios/E_Multiplicadores de lagrange.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\metodos\Metodos\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B158E16-24A7-4DDD-9D9F-89613146F4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58B91D2-E460-4BA0-A413-E8E86830C498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CF4C8049-84CA-4910-BBF7-1E28CED19A1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF4C8049-84CA-4910-BBF7-1E28CED19A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="a)" sheetId="3" r:id="rId1"/>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535B3677-53A8-41B5-B3F6-E850B84ACA2C}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,8 +1088,8 @@
     <col min="4" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -2595,7 +2595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC22CD5F-4D0D-4C8B-94A2-8E7F9C49806F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
